--- a/pred_ohlcv/54_21/2020-01-11 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 TMTG ohlcv.xlsx
@@ -11416,7 +11416,7 @@
         <v>-2513141.2368</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-2514004.8289</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3385925.881300001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3328716.164300001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-3245649.724300001</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>5083318.078435617</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4856614.996635616</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4867939.41437734</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4767058.400777339</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>4605876.741077339</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3802477.631677339</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3802477.631677339</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3513669.099377339</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>2131915.633377339</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>2131915.633377339</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>2229489.867777339</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>1436234.50799734</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-5361749.010788438</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-5361749.010788438</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-5361749.010788438</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-5322007.657488438</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-5389381.294088438</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-6334145.211888438</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-6325189.370888438</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-6354151.406888438</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-6247043.233888438</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-6323729.831888438</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-6414172.720888439</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-6434599.703888439</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-6473582.065888438</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-6417885.618888439</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-6417885.618888439</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-6417885.618888439</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-6406544.466888439</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-6981908.896988438</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-6981908.896988438</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-6929264.387809238</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-6983918.951809239</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-6923500.803009239</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-6923500.803009239</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-6468624.403309239</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-6518624.403309239</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-6508974.403309239</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-6783276.231609239</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-6740759.061609239</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-6813422.471609239</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-6810821.305609239</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-6712216.73960924</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-7132377.769909239</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-7150427.415909239</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-7154682.327909239</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-7135056.437909239</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-7146842.48690924</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-7261501.837909239</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-7183474.242909239</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-6955310.248909239</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-6925323.507909238</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-6990998.398909238</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-6912954.472909238</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-6829032.539909238</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-6826932.772909238</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-6826932.772909238</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-6773061.220909238</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-6834753.639909238</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-6909417.380909238</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-6904782.304909238</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-7003094.980909238</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-6274385.910321395</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-6748600.851321395</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-6818297.873321395</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-6821083.962321395</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 TMTG ohlcv.xlsx
@@ -11442,7 +11442,7 @@
         <v>-2509788.6128</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2505270.2798</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2499725.6928</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2499593.6028</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2500382.7558</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2498054.0258</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2494190.4158</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2488520.2598</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2488726.1008</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2489587.1878</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2488079.2998</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2490118.9588</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2525237.0943</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2524204.7643</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2522083.8693</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2525062.1973</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2511184.2639</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2507321.8589</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2502519.5799</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2502943.6089</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-2503899.6789</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-2501962.0099</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-2493274.3339</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-2491734.7509</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-2489033.078900001</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-2489033.078900001</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-2489033.078900001</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3385925.881300001</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3328716.164300001</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-3245649.724300001</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>4764433.992535616</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4732396.01087734</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4534458.82297734</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4594266.16297734</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4466973.12597734</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4767058.400777339</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>4663189.480777339</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>4593580.336177339</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>4539853.194177339</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>4605876.741077339</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3802477.631677339</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3513669.099377339</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>2131915.633377339</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>2131915.633377339</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>2229489.867777339</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>1436234.50799734</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-5361749.010788438</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-5361749.010788438</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-5361749.010788438</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-5322007.657488438</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-5389381.294088438</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-6334145.211888438</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-6325189.370888438</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-6354151.406888438</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-6247043.233888438</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-6323729.831888438</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-6414172.720888439</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-6434599.703888439</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-6473582.065888438</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-6417885.618888439</v>
       </c>
       <c r="H1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-6417885.618888439</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-6417885.618888439</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-6406544.466888439</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-6981908.896988438</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-6981908.896988438</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-6929264.387809238</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-6983918.951809239</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-6923500.803009239</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-6923500.803009239</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-6468624.403309239</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-6518624.403309239</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-6508974.403309239</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-6783276.231609239</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-6740759.061609239</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-6813422.471609239</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-6810821.305609239</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-6712216.73960924</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-7132377.769909239</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-7039163.781909239</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-7230104.762909239</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-7241218.164909239</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-7202467.874909239</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-7266345.022909239</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-6970386.655909238</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-6502055.985321395</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-6616120.061321395</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-6636532.604321395</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-6672320.327321395</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-6660772.645321395</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
